--- a/PLSstatic/PLSstatic_predicted_variables_matrix_10.xlsx
+++ b/PLSstatic/PLSstatic_predicted_variables_matrix_10.xlsx
@@ -443,530 +443,530 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.2582741201374517</v>
+        <v>-0.2095100884369551</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.2894254031914406</v>
+        <v>-0.8379002189740954</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.1553793468010642</v>
+        <v>-0.4671905040515311</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1695405240703617</v>
+        <v>-1.230702036034245</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.12278896508117</v>
+        <v>-0.5455376767895779</v>
       </c>
       <c r="B4" t="n">
-        <v>0.139148930695325</v>
+        <v>-1.607184072506625</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.08015601903714747</v>
+        <v>-0.2032515484787179</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.08815323932675281</v>
+        <v>-0.6196333778449691</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.148808639745363</v>
+        <v>-0.2015325903169599</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1529323563764997</v>
+        <v>-0.2609675993684708</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.4165648456524333</v>
+        <v>-0.2371420086554795</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.4361444339385354</v>
+        <v>-0.8937657444083623</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.2438841924490751</v>
+        <v>-0.4809405008460905</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.2262363339697689</v>
+        <v>-1.104493371240874</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.4949314538412322</v>
+        <v>-0.6462027447962853</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.4477181318753609</v>
+        <v>-1.722176332716887</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.3161548265592992</v>
+        <v>-0.4984316114019968</v>
       </c>
       <c r="B10" t="n">
-        <v>0.3575110431822431</v>
+        <v>-0.4374574618321648</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.2371841454072549</v>
+        <v>-0.2698359325064053</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.245595740936201</v>
+        <v>-0.9460183002241354</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.126213578603538</v>
+        <v>-0.2200911257904904</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.1187438581872477</v>
+        <v>-0.4229785037097781</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.04246579430651376</v>
+        <v>-0.1037873042165333</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.03736768271021035</v>
+        <v>-0.2145148933534846</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.04243512172624633</v>
+        <v>-0.2724062589405265</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.02653613442216229</v>
+        <v>-0.3162005862098188</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.100286667355708</v>
+        <v>-0.06732061235437686</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.08310209898435339</v>
+        <v>0.1255420728274558</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.2011069491381908</v>
+        <v>-0.2396914543690218</v>
       </c>
       <c r="B16" t="n">
-        <v>0.2654786286384713</v>
+        <v>-0.6283176742554456</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.4265615693316032</v>
+        <v>0.003036054274278797</v>
       </c>
       <c r="B17" t="n">
-        <v>0.4860589923451614</v>
+        <v>0.4451127093981985</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.1151387225513623</v>
+        <v>0.02156687078558003</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.103254227098851</v>
+        <v>0.5551525444481236</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.3607596387686161</v>
+        <v>0.05624229038695133</v>
       </c>
       <c r="B19" t="n">
-        <v>0.3777816842394534</v>
+        <v>0.3490889584933873</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.134714754708507</v>
+        <v>-0.158246147902445</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1659111668713417</v>
+        <v>-0.4488377904159373</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.4772561365246262</v>
+        <v>-0.03253682032423353</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5014585162946485</v>
+        <v>0.2490004173988481</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.2250031691424232</v>
+        <v>-0.07423985150057538</v>
       </c>
       <c r="B22" t="n">
-        <v>0.2785251655168466</v>
+        <v>0.2856838034772378</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-0.1420171660945262</v>
+        <v>0.02694808364132478</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.1429103308915704</v>
+        <v>0.4948601289525356</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4.019602377525993</v>
+        <v>0.8451072203291963</v>
       </c>
       <c r="B24" t="n">
-        <v>3.555909553283782</v>
+        <v>2.384501066679122</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.4276637621664465</v>
+        <v>0.1288135216087946</v>
       </c>
       <c r="B25" t="n">
-        <v>0.4176813332453535</v>
+        <v>0.6573290021976542</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.3740119846727618</v>
+        <v>0.1839054168366249</v>
       </c>
       <c r="B26" t="n">
-        <v>0.3463674694968774</v>
+        <v>0.6116695573938347</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.2085064810671163</v>
+        <v>0.1306071906351134</v>
       </c>
       <c r="B27" t="n">
-        <v>0.2261396358761321</v>
+        <v>0.6915887987496229</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1.239952757884688</v>
+        <v>0.3723775497480384</v>
       </c>
       <c r="B28" t="n">
-        <v>1.076234329605941</v>
+        <v>1.27457830695872</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3.839047416137667</v>
+        <v>0.7021712938188642</v>
       </c>
       <c r="B29" t="n">
-        <v>3.506618459788041</v>
+        <v>2.299311468773102</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1.009244153978211</v>
+        <v>0.2511787273034483</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9532602996979974</v>
+        <v>0.7904614385661362</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-0.290411976227626</v>
+        <v>0.08188460933219721</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.3078218159819486</v>
+        <v>0.5947565271340425</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.7909804213680516</v>
+        <v>0.2328830996605502</v>
       </c>
       <c r="B32" t="n">
-        <v>0.7833407663005256</v>
+        <v>1.036557800243321</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.8925083441714414</v>
+        <v>0.1516001679706656</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9076020432415528</v>
+        <v>0.7873743958802361</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-0.678260871076804</v>
+        <v>0.1085785059715446</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.701344242190604</v>
+        <v>0.4817198996339583</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.8648209871747387</v>
+        <v>0.4059551404095935</v>
       </c>
       <c r="B35" t="n">
-        <v>0.8510337175769017</v>
+        <v>1.183761674201925</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.8279210128518154</v>
+        <v>0.2855661592284053</v>
       </c>
       <c r="B36" t="n">
-        <v>0.8096626891606582</v>
+        <v>0.7382262801659634</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.7397098377943341</v>
+        <v>-0.02985859994145716</v>
       </c>
       <c r="B37" t="n">
-        <v>0.7430212135780238</v>
+        <v>-0.04644764224621437</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.7031336418910982</v>
+        <v>0.3606759753309736</v>
       </c>
       <c r="B38" t="n">
-        <v>0.6958179635512147</v>
+        <v>1.655840245639183</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.6091369430529961</v>
+        <v>-0.1134971026603982</v>
       </c>
       <c r="B39" t="n">
-        <v>0.6060909135045602</v>
+        <v>-0.2845369871992774</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.795663552523236</v>
+        <v>0.1485976969633974</v>
       </c>
       <c r="B40" t="n">
-        <v>0.8016630190017682</v>
+        <v>0.6291346820648994</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.550653298323851</v>
+        <v>-0.1666981911741042</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5427218401558312</v>
+        <v>0.5775014000248526</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.7066314855387945</v>
+        <v>0.2832620069664291</v>
       </c>
       <c r="B42" t="n">
-        <v>0.7069143217212347</v>
+        <v>1.57331484963083</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.6956045092319177</v>
+        <v>0.113888612116753</v>
       </c>
       <c r="B43" t="n">
-        <v>0.7010345303541762</v>
+        <v>0.8138681769111067</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.7160354535677864</v>
+        <v>0.04251601851196032</v>
       </c>
       <c r="B44" t="n">
-        <v>0.706464046571479</v>
+        <v>0.3601140775006053</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.7089674369695196</v>
+        <v>-0.1212609069821894</v>
       </c>
       <c r="B45" t="n">
-        <v>0.7181258724737837</v>
+        <v>0.03488624435914889</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-1.291743296774516</v>
+        <v>-0.1721606371902295</v>
       </c>
       <c r="B46" t="n">
-        <v>-1.283338684013195</v>
+        <v>-0.4408384506887962</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-1.001285156489335</v>
+        <v>-0.1676381673409932</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.9963075453542547</v>
+        <v>-0.350346897799793</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>-0.8916289587574379</v>
+        <v>-0.2211252889132141</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.8753584810054925</v>
+        <v>-0.5384615165485332</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>-0.6568063812999723</v>
+        <v>-0.2238407406011904</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.6414242870621579</v>
+        <v>-0.5948442133249261</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>-0.04428253370551255</v>
+        <v>-0.1008528053657672</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.04821301781343409</v>
+        <v>-0.1488916354239387</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-0.871848878851273</v>
+        <v>-0.2284903471496285</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.864525856518474</v>
+        <v>-0.630849053808473</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-0.871848878851273</v>
+        <v>-0.2284903471496285</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.864525856518474</v>
+        <v>-0.630849053808473</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-1.143533625689386</v>
+        <v>-0.1953346499633997</v>
       </c>
       <c r="B53" t="n">
-        <v>-1.129323510003908</v>
+        <v>-0.3891390135927847</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-0.1877637672235338</v>
+        <v>-0.2183101419596003</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.1780056719053754</v>
+        <v>-0.5423375210844638</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-1.015460365725981</v>
+        <v>-0.1549616035746775</v>
       </c>
       <c r="B55" t="n">
-        <v>-1.003844593367432</v>
+        <v>-0.3375691409173693</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-0.8780666031549917</v>
+        <v>-0.1163979145544606</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.8773168897529308</v>
+        <v>-0.2837291266230884</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-0.9790557546099519</v>
+        <v>-0.1832469983269261</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.9556153924863739</v>
+        <v>-0.3404896288290168</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>-1.105558756942916</v>
+        <v>-0.145545391540654</v>
       </c>
       <c r="B58" t="n">
-        <v>-1.133343422452462</v>
+        <v>-0.2601452411715781</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-0.8250288557058562</v>
+        <v>-0.2223132843059765</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.8283643401432251</v>
+        <v>-0.6492027115795734</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-0.4768122908156665</v>
+        <v>-0.2536643487663319</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.4743872472803721</v>
+        <v>-0.7110722138153006</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.3697020678551144</v>
+        <v>-0.2683979652135061</v>
       </c>
       <c r="B61" t="n">
-        <v>0.3744865131744057</v>
+        <v>-0.3305365139864404</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-1.223537408940113</v>
+        <v>-0.1491951328431063</v>
       </c>
       <c r="B62" t="n">
-        <v>-1.184810705085453</v>
+        <v>-0.07310099463401706</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-0.7151271527585141</v>
+        <v>-0.4748670785773039</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.6987130529475989</v>
+        <v>-1.283841480614283</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-0.942504647006946</v>
+        <v>-0.2972107521500132</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.9291668342377564</v>
+        <v>-0.6572935007319717</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-0.07963630127189092</v>
+        <v>-0.2483761848036102</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.07512570984029676</v>
+        <v>-0.6116519566086053</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-0.7817823790003201</v>
+        <v>-0.1037779011186861</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.7734187439555611</v>
+        <v>-0.03484158900219716</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-0.7017006034560874</v>
+        <v>0.02302464629094756</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.7204542986497692</v>
+        <v>0.1812275194303561</v>
       </c>
     </row>
   </sheetData>
